--- a/test/test_resources/testdata3/Mails1.xlsx
+++ b/test/test_resources/testdata3/Mails1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.restrepo\Documents\Automation Anywhere Files\Automation Anywhere\My Tasks\DAPI Template AA2\N00XX\1.O365Login\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.restrepo\Desktop\JC\testing\RPAAutomatedTest\test\test_resources\testdata3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A195D8-22B5-4AA2-A956-679DC52BD2BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF00F0-5C86-4742-8485-A19C4AF2ACAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>TF00000018.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">State of the mail </t>
-  </si>
-  <si>
     <t>Sent</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>To send</t>
+  </si>
+  <si>
+    <t>State of the mail</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,16 +501,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,16 +518,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,16 +535,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,16 +552,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,16 +569,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,16 +586,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,16 +603,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -630,6 +630,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100097DDBA66CA49C4D87C41BEFB43B253C" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2967360d1c6dddcf16a92ea8a8913c15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df9a7d56-665f-41a0-b101-66cf614a0daa" xmlns:ns3="6e7ca57e-25f9-4206-80f0-75d34cdc46ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe664f0a8d4e56e8951fb1cd0d4a8b23" ns2:_="" ns3:_="">
     <xsd:import namespace="df9a7d56-665f-41a0-b101-66cf614a0daa"/>
@@ -814,15 +823,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -830,6 +830,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB45253-DE12-4FAC-9E97-3A1146D1072D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D2CB7C1-75ED-4B8A-9527-6BA8B4CB9078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -848,14 +856,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB45253-DE12-4FAC-9E97-3A1146D1072D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA9F3686-D224-45EC-828B-8E3FF75C85F2}">
   <ds:schemaRefs>
